--- a/biology/Microbiologie/Aplanochytrium/Aplanochytrium.xlsx
+++ b/biology/Microbiologie/Aplanochytrium/Aplanochytrium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aplanochytriidae
 Aplanochytrium, unique représentant de la famille des Aplanochytriidae, est un genre de protistes de l'embranchement des Bigyra, de la classe des Labyrinthulea et de l’ordre des Thraustochytrida.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom Aplanochytrium est composé du préfixe aplano-, (du grec ancien ἀπλανής / aplanis, « immobile »), et du suffixe chytr- (du grec χυτρ / chytr, « vase d'argile, pot de terre »), en référence aux spores circulaires et dépourvues de flagelle donc immobiles, appelées « aplanospores », que produit cet organisme[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom Aplanochytrium est composé du préfixe aplano-, (du grec ancien ἀπλανής / aplanis, « immobile »), et du suffixe chytr- (du grec χυτρ / chytr, « vase d'argile, pot de terre »), en référence aux spores circulaires et dépourvues de flagelle donc immobiles, appelées « aplanospores », que produit cet organisme.
 </t>
         </is>
       </c>
@@ -543,11 +557,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aplanochytrium a des sporanges globuleux ou subglobuleux, sessiles ou libres. Il émet aussi un système rhizoïdal étendu, ramifié, exobiotique et endobiotique[note 1]. Uniquement des spores dites « aplanospores » sont formées[1].
-Le genre Aplanochytrium est très similaire au genre Thraustochytrium (famille des Thraustochytriidae), mais il s’en distingue par le fait que ses spores ne deviennent jamais flagellées. En d'autres termes, Aplanochytrium ne produit pas de zoospores[1]. 
-Aplanochytrium ressemble aussi beaucoup aussi au genre Dermocystidium (en) Goldstein et Moriber (1966)[note 2], mais il en diffère car il forme des rhizoïdes et est capable d'utiliser le pollen de pin comme substrat[1]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aplanochytrium a des sporanges globuleux ou subglobuleux, sessiles ou libres. Il émet aussi un système rhizoïdal étendu, ramifié, exobiotique et endobiotique[note 1]. Uniquement des spores dites « aplanospores » sont formées.
+Le genre Aplanochytrium est très similaire au genre Thraustochytrium (famille des Thraustochytriidae), mais il s’en distingue par le fait que ses spores ne deviennent jamais flagellées. En d'autres termes, Aplanochytrium ne produit pas de zoospores. 
+Aplanochytrium ressemble aussi beaucoup aussi au genre Dermocystidium (en) Goldstein et Moriber (1966)[note 2], mais il en diffère car il forme des rhizoïdes et est capable d'utiliser le pollen de pin comme substrat. 
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Aplanochytrium et son espèce type Aplanochytrium kerguelensi ont été découverts au sud de l'océan Indien dans les eaux froides des îles Kerguellen, lesquelles donnent l'épithète spécifique à l'espèce[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Aplanochytrium et son espèce type Aplanochytrium kerguelensi ont été découverts au sud de l'océan Indien dans les eaux froides des îles Kerguellen, lesquelles donnent l'épithète spécifique à l'espèce.
 </t>
         </is>
       </c>
@@ -607,15 +625,17 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon le World Register of Marine Species                               (14 octobre 2023)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon le World Register of Marine Species                               (14 octobre 2023) :
 Aplanochytrium haliotidis (S.M. Bower) C.A. Leander &amp; D. Porter, 2000
 Aplanochytrium kerguelense Bahnweg &amp; Sparrow, 1972
 Aplanochytrium minuta (S.W. Watson &amp; Raper) C.A. Leander &amp; D. Porter, 2000
 Aplanochytrium stocchinoi Andreoli &amp; Moro, 2003
 Aplanochytrium yorkensis (F.O. Perkins) C.A. Leander &amp; D. Porter, 2000
-Selon MycoBank                                            (14 octobre 2023)[3] :
+Selon MycoBank                                            (14 octobre 2023) :
 Aplanochytrium haliotidis (S.M. Bower) C.A. Leander &amp; D. Porter, 2000
 Aplanochytrium kerguelense Bahnweg &amp; Sparrow, 1972
 Aplanochytrium minuta (S.W. Watson &amp; Raper) C.A. Leander &amp; D. Porter, 2000
@@ -651,9 +671,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide Aplanochytrium a été publié en 1972 par les mycologues américains Günther Bahnweg et Frederick Kroeber Sparrow (en)[1]. Ce genre relève à la fois du CINB et du CINZ. MycoBank                                            (14 octobre 2023)[3] le classe ainsi dans la famille des Thraustochytriaceae tandis que le World Register of Marine Species                               (14 octobre 2023)[2] le place comme unique genre de la famille des Aplanochytriidae, dont le nom a été publié en 2012 par le systématicien britannique Thomas Cavalier-Smith[4].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide Aplanochytrium a été publié en 1972 par les mycologues américains Günther Bahnweg et Frederick Kroeber Sparrow (en). Ce genre relève à la fois du CINB et du CINZ. MycoBank                                            (14 octobre 2023) le classe ainsi dans la famille des Thraustochytriaceae tandis que le World Register of Marine Species                               (14 octobre 2023) le place comme unique genre de la famille des Aplanochytriidae, dont le nom a été publié en 2012 par le systématicien britannique Thomas Cavalier-Smith.
 </t>
         </is>
       </c>
@@ -682,7 +704,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Genre Aplanochytrium :
 (en) Günther Bahnweg et Frederick K. Sparrow, « Aplanochytrium kerguelensis gen. nov. spec. nov., a new phycomycete from subantarctic marine waters », Archiv für Mikrobiologie, vol. 81, no 1,‎ 1er mars 1972, p. 45–49 (ISSN 1432-072X, DOI 10.1007/BF00715023, lire en ligne  [PDF], consulté le 14 octobre 2023)
